--- a/h1bapplicationfinal.xlsx
+++ b/h1bapplicationfinal.xlsx
@@ -102,7 +102,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -110,19 +110,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,11 +486,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="178823936"/>
-        <c:axId val="178825472"/>
+        <c:axId val="194557056"/>
+        <c:axId val="194558592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="178823936"/>
+        <c:axId val="194557056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -484,7 +500,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178825472"/>
+        <c:crossAx val="194558592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -492,7 +508,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178825472"/>
+        <c:axId val="194558592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -508,7 +524,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="178823936"/>
+        <c:crossAx val="194557056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -649,12 +665,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="133449216"/>
-        <c:axId val="133450752"/>
+        <c:axId val="194579456"/>
+        <c:axId val="194593536"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="133449216"/>
+        <c:axId val="194579456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -664,7 +680,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133450752"/>
+        <c:crossAx val="194593536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -672,7 +688,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133450752"/>
+        <c:axId val="194593536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -683,7 +699,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133449216"/>
+        <c:crossAx val="194579456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1059,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,298 +1100,298 @@
     <row r="3" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="J4" s="4" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="J4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="5">
         <v>2011</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>11596</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>10105</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>307936</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>29130</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <v>358767</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="6">
         <v>2011</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="6">
         <v>3.2321813321738002</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="6">
         <v>2.8165912695426201</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="6">
         <v>85.831751526756904</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="6">
         <v>8.1194758715266406</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="6">
         <f>SUM(J7:M7)</f>
         <v>99.999999999999972</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="5">
         <v>2012</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>31118</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>10725</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>352668</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>21096</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <v>415607</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="6">
         <v>2012</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="6">
         <v>7.4873618586789901</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="6">
         <v>2.5805628875355802</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="6">
         <v>84.856126099897196</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="6">
         <v>5.0759491538881596</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="6">
         <f t="shared" ref="N8:N12" si="0">SUM(J8:M8)</f>
         <v>99.999999999999929</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="5">
         <v>2013</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>35432</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <v>11590</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>382951</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <v>12141</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <v>442114</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="6">
         <v>2013</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="6">
         <v>8.0142225760776604</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="6">
         <v>2.6214958132970199</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="6">
         <v>86.618157307843603</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="6">
         <v>2.74612430278163</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="6">
         <f t="shared" si="0"/>
         <v>99.999999999999915</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="5">
         <v>2014</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>36350</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>16034</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>455144</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <v>11899</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
         <v>519427</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="6">
         <v>2014</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="6">
         <v>6.9980959788382204</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="6">
         <v>3.0868630240630499</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="6">
         <v>87.624247488097396</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="6">
         <v>2.2907935090012601</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="6">
         <f t="shared" si="0"/>
         <v>99.999999999999929</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="5">
         <v>2015</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>41071</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>19455</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>547278</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>10923</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <v>618727</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="6">
         <v>2015</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="6">
         <v>6.6379841190056297</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="6">
         <v>3.1443593054772099</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="6">
         <v>88.452257619273098</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="6">
         <v>1.76539895624403</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="6">
         <f t="shared" si="0"/>
         <v>99.999999999999957</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="5">
         <v>2016</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>47092</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>21890</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>569646</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>9175</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="5">
         <v>647803</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="6">
         <v>2016</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="6">
         <v>7.2694939665299403</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="6">
         <v>3.3791137120389898</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="6">
         <v>87.935066679221904</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="6">
         <v>1.4163256422091199</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="6">
         <f t="shared" si="0"/>
         <v>99.999999999999957</v>
       </c>
@@ -1386,63 +1402,63 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="5">
         <v>2011</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>358767</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="5">
         <v>2012</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>415607</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="5">
         <v>2013</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <v>442114</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="5">
         <v>2014</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>519427</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="5">
         <v>2015</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <v>618727</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="5">
         <v>2016</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>647803</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="4" t="s">
         <v>12</v>
       </c>
     </row>
